--- a/com.HybridFrameWork_31Aug2019/TestData/LoginData.xlsx
+++ b/com.HybridFrameWork_31Aug2019/TestData/LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\workspace1\Cucumber_29_Aug_2019\com.HybridFrameWork_31Aug2019\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\OrangeHRMApplication\com.HybridFrameWork_31Aug2019\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B470881-8359-40C3-994B-CDB0E7A59B95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793C848-DEC5-417B-BD6E-A0CBF81A0844}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Admin</t>
   </si>
@@ -72,22 +72,25 @@
     <t>Fiona Grace</t>
   </si>
   <si>
-    <t>Shiva T</t>
-  </si>
-  <si>
-    <t>Ganesh T</t>
-  </si>
-  <si>
-    <t>Kumar T</t>
-  </si>
-  <si>
-    <t>Padmini P</t>
-  </si>
-  <si>
-    <t>Manohar R</t>
-  </si>
-  <si>
-    <t>Admin1</t>
+    <t>Shiva T1431</t>
+  </si>
+  <si>
+    <t>Ganesh T1431</t>
+  </si>
+  <si>
+    <t>Kumar T1431</t>
+  </si>
+  <si>
+    <t>Padmini P1431</t>
+  </si>
+  <si>
+    <t>Manohar R1431</t>
+  </si>
+  <si>
+    <t>Manohar R1411</t>
+  </si>
+  <si>
+    <t>Manohar R1471</t>
   </si>
 </sst>
 </file>
@@ -550,13 +553,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BD34C2-7FCD-4661-9F9C-18192404DA38}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -568,26 +574,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,6 +595,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -606,16 +622,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201C93A-E557-4E6C-96EE-5A217A915A09}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,6 +705,34 @@
         <v>987654321</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>987654321</v>
+      </c>
+      <c r="D6">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>987654321</v>
+      </c>
+      <c r="D7">
+        <v>987654321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
